--- a/ProDS2/Prediction/iterasi2.xlsx
+++ b/ProDS2/Prediction/iterasi2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B393"/>
+  <dimension ref="A1:B326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,163 +448,163 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,79 +616,79 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,72 +700,72 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -777,38 +777,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,55 +820,55 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,24 +880,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -921,31 +921,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -964,420 +964,420 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -1396,72 +1396,72 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -1473,38 +1473,38 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,55 +1516,55 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,12 +1576,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -1600,48 +1600,48 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,264 +1672,264 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -1948,24 +1948,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
@@ -1977,146 +1977,146 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,103 +2128,103 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,24 +2236,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -2272,67 +2272,67 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2356,60 +2356,60 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -2428,79 +2428,79 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,12 +2512,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
@@ -2536,48 +2536,48 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -2589,86 +2589,86 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,156 +2680,156 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
@@ -2848,36 +2848,36 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
@@ -2889,43 +2889,43 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -2937,14 +2937,14 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2956,43 +2956,43 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3004,7 +3004,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3016,175 +3016,175 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3196,240 +3196,240 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
@@ -3448,31 +3448,31 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3484,48 +3484,48 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -3544,43 +3544,43 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3592,103 +3592,103 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -3700,19 +3700,19 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -3724,31 +3724,31 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3760,19 +3760,19 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -3808,36 +3808,36 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
@@ -3868,127 +3868,127 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4012,36 +4012,36 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
@@ -4060,36 +4060,36 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>river</t>
         </is>
       </c>
     </row>
@@ -4101,163 +4101,163 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>grassland</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>road_n_railway</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>settlement</t>
+          <t>tank</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>agriculture</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
@@ -4269,19 +4269,19 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>agriculture</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
+          <t>road_n_railway</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
           <t>grassland</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>crop</t>
         </is>
       </c>
     </row>
@@ -4293,859 +4293,55 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>land_without_scrub</t>
+          <t>crop</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>road_n_railway</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>river</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>settlement</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>settlement</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>agriculture</t>
+          <t>land_without_scrub</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>land_without_scrub</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>crop</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>crop</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>crop</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>crop</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>crop</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>crop</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>crop</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>crop</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>crop</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>crop</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>crop</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>road_n_railway</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>land_without_scrub</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>river</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>crop</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>agriculture</t>
         </is>
       </c>
     </row>
